--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3220096.381584472</v>
+        <v>3217700.72557929</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>42.76734719401195</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
         <v>94.24014755885155</v>
@@ -716,16 +716,16 @@
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>250.0823870750525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.48884505147984</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>139.5319632224511</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>323.2083303409936</v>
+        <v>110.8406143427438</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>24.82888074466257</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>279.9095485711824</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>136.1884245200376</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.9966426911982</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>54.34081439459711</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>181.0919561226084</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695416</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.23631843387898</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>14.92158678358339</v>
       </c>
       <c r="G16" t="n">
-        <v>91.66636605273423</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>132.6315337216688</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>40.53421095546916</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>276.7155083675887</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>10.63412424768211</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>25.52471385612597</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>92.58181139165723</v>
       </c>
     </row>
     <row r="32">
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>48.85497112745768</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057933</v>
       </c>
     </row>
     <row r="38">
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,10 +3721,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>253.630393765991</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>141.4513012076585</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,10 +3910,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>107.4021082756242</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>10.63412424768206</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1343.392606602229</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="C2" t="n">
-        <v>974.430089661817</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="D2" t="n">
-        <v>974.430089661817</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="E2" t="n">
-        <v>974.430089661817</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="F2" t="n">
-        <v>563.4441848722093</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640839</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
         <v>146.9919235640839</v>
@@ -4328,25 +4328,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>455.1003844723717</v>
       </c>
       <c r="L2" t="n">
-        <v>928.7179450719127</v>
+        <v>692.7231656905637</v>
       </c>
       <c r="M2" t="n">
-        <v>1224.788511629516</v>
+        <v>1333.746375310458</v>
       </c>
       <c r="N2" t="n">
-        <v>1530.263617865101</v>
+        <v>1693.744037126425</v>
       </c>
       <c r="O2" t="n">
-        <v>2171.286827484995</v>
+        <v>1968.860256443059</v>
       </c>
       <c r="P2" t="n">
-        <v>2371.591154774098</v>
+        <v>2487.74530482193</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4361,19 +4361,19 @@
         <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459333</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>1982.600918459333</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>1982.600918459333</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>1982.600918459333</v>
+        <v>925.3036175845675</v>
       </c>
       <c r="Y2" t="n">
-        <v>1729.99244666635</v>
+        <v>925.3036175845675</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884146</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686806</v>
@@ -4407,25 +4407,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>160.959556834261</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>282.3826491045401</v>
+        <v>460.3590590626825</v>
       </c>
       <c r="L3" t="n">
-        <v>859.1054642077956</v>
+        <v>669.9499323155136</v>
       </c>
       <c r="M3" t="n">
-        <v>1123.044995703283</v>
+        <v>1304.992176928754</v>
       </c>
       <c r="N3" t="n">
-        <v>1408.378866136617</v>
+        <v>1590.326047362088</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972038</v>
+        <v>1829.130999113547</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4440,7 +4440,7 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>676.4160707966523</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C4" t="n">
-        <v>507.4798878687454</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D4" t="n">
-        <v>462.5416605440183</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>314.6285669616252</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018416</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
         <v>187.5436166159875</v>
@@ -4510,28 +4510,28 @@
         <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702568</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1193.542248702568</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="T4" t="n">
-        <v>1193.542248702568</v>
+        <v>884.3189032968623</v>
       </c>
       <c r="U4" t="n">
-        <v>904.4056216946697</v>
+        <v>595.1822762889644</v>
       </c>
       <c r="V4" t="n">
-        <v>904.4056216946697</v>
+        <v>595.1822762889644</v>
       </c>
       <c r="W4" t="n">
-        <v>904.4056216946697</v>
+        <v>595.1822762889644</v>
       </c>
       <c r="X4" t="n">
-        <v>676.4160707966523</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="Y4" t="n">
-        <v>676.4160707966523</v>
+        <v>233.4483201530594</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1867.030894043746</v>
+        <v>937.4502656609266</v>
       </c>
       <c r="C5" t="n">
-        <v>1540.557833093248</v>
+        <v>825.4900491531046</v>
       </c>
       <c r="D5" t="n">
-        <v>1182.292134486497</v>
+        <v>825.4900491531046</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.292134486497</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="F5" t="n">
-        <v>771.3062296968895</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G5" t="n">
-        <v>355.6243878970215</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
@@ -4568,13 +4568,13 @@
         <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477384</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
         <v>1673.478115539971</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.170226019558</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="V5" t="n">
-        <v>2257.170226019558</v>
+        <v>2050.284519256242</v>
       </c>
       <c r="W5" t="n">
-        <v>2257.170226019558</v>
+        <v>1697.515863986128</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.170226019558</v>
+        <v>1324.050105725048</v>
       </c>
       <c r="Y5" t="n">
-        <v>1867.030894043746</v>
+        <v>1324.050105725048</v>
       </c>
     </row>
     <row r="6">
@@ -4629,43 +4629,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
         <v>301.9467472258289</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421436</v>
+        <v>942.9699568457229</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.69994069158</v>
+        <v>1309.275846338048</v>
       </c>
       <c r="N6" t="n">
-        <v>1835.723150311474</v>
+        <v>1699.685407663791</v>
       </c>
       <c r="O6" t="n">
-        <v>2170.651831027005</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2420.128558892024</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>813.3432601206878</v>
+        <v>394.9723609931273</v>
       </c>
       <c r="C7" t="n">
-        <v>813.3432601206878</v>
+        <v>394.9723609931273</v>
       </c>
       <c r="D7" t="n">
-        <v>663.226620708352</v>
+        <v>244.8557215807915</v>
       </c>
       <c r="E7" t="n">
-        <v>515.3135271259589</v>
+        <v>244.8557215807915</v>
       </c>
       <c r="F7" t="n">
-        <v>368.4235796280485</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
         <v>51.79985532281972</v>
@@ -4723,16 +4723,16 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.9810806808055</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
         <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317423</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
         <v>1130.141273750634</v>
@@ -4750,25 +4750,25 @@
         <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910904</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1544.862307910904</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="U7" t="n">
-        <v>1544.862307910904</v>
+        <v>1059.294864927271</v>
       </c>
       <c r="V7" t="n">
-        <v>1544.862307910904</v>
+        <v>804.6103767213843</v>
       </c>
       <c r="W7" t="n">
-        <v>1262.125390162235</v>
+        <v>804.6103767213843</v>
       </c>
       <c r="X7" t="n">
-        <v>1034.135839264218</v>
+        <v>576.620825823367</v>
       </c>
       <c r="Y7" t="n">
-        <v>813.3432601206878</v>
+        <v>576.620825823367</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1439.787835839972</v>
+        <v>1473.61902063398</v>
       </c>
       <c r="C8" t="n">
-        <v>1439.787835839972</v>
+        <v>1104.656503693568</v>
       </c>
       <c r="D8" t="n">
-        <v>1081.522137233222</v>
+        <v>1104.656503693568</v>
       </c>
       <c r="E8" t="n">
-        <v>943.9580720614667</v>
+        <v>718.8682510953238</v>
       </c>
       <c r="F8" t="n">
-        <v>532.9721672718592</v>
+        <v>711.9227503461203</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719912</v>
+        <v>296.2409085462523</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4841,13 +4841,13 @@
         <v>2589.992766140986</v>
       </c>
       <c r="W8" t="n">
-        <v>2589.992766140986</v>
+        <v>2237.224110870871</v>
       </c>
       <c r="X8" t="n">
-        <v>2216.527007879906</v>
+        <v>1863.758352609791</v>
       </c>
       <c r="Y8" t="n">
-        <v>1826.387675904094</v>
+        <v>1473.61902063398</v>
       </c>
     </row>
     <row r="9">
@@ -4866,43 +4866,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>426.7768722128336</v>
+        <v>563.7673318682815</v>
       </c>
       <c r="L9" t="n">
-        <v>724.0888213291483</v>
+        <v>1079.007699493407</v>
       </c>
       <c r="M9" t="n">
-        <v>1219.783862516113</v>
+        <v>1445.313588985732</v>
       </c>
       <c r="N9" t="n">
-        <v>1860.807072136007</v>
+        <v>1835.723150311474</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>2170.651831027005</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.6319074814764</v>
+        <v>360.8832231198351</v>
       </c>
       <c r="C10" t="n">
-        <v>664.6957245535696</v>
+        <v>305.993511610141</v>
       </c>
       <c r="D10" t="n">
-        <v>514.5790851412338</v>
+        <v>305.993511610141</v>
       </c>
       <c r="E10" t="n">
-        <v>366.6659915588407</v>
+        <v>305.993511610141</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609304</v>
+        <v>305.993511610141</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>836.360290469252</v>
       </c>
       <c r="V10" t="n">
-        <v>1646.983670153878</v>
+        <v>581.6758022633652</v>
       </c>
       <c r="W10" t="n">
-        <v>1464.062502353264</v>
+        <v>581.6758022633652</v>
       </c>
       <c r="X10" t="n">
-        <v>1236.072951455246</v>
+        <v>581.6758022633652</v>
       </c>
       <c r="Y10" t="n">
-        <v>1015.280372311716</v>
+        <v>360.8832231198351</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5057,10 +5057,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>552.3777707160738</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2418.441549808666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2235.58671546357</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2015.985250486511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1726.910023830708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1472.225535624822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1182.808365587861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8188146898436</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.0262355463135</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,31 +5273,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>740.5562989961522</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.53275017731</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2517.442480416597</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2517.442480416597</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416597</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1024.063349920562</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>855.1271669926552</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>705.0105275803195</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E16" t="n">
-        <v>557.0974339979264</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F16" t="n">
-        <v>410.207486500016</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5519,19 +5519,19 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
         <v>235.5284942057738</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273903</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>692.9625378792909</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1320.560501433898</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1872.470231673185</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5990,7 +5990,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>417.9651836029414</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898187001</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.0653816078141</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799072</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438176</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.189824692392</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1320.560501433898</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>414.4022433768874</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>266.4891497944943</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>119.599202296584</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>904.4616873845483</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.8401750111</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819168</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695811</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>516.389687887188</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>369.4997403892776</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,16 +7011,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4997403892776</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>202.3036411041575</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="38">
@@ -7163,16 +7163,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819173</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695815</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>516.3896878871884</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F43" t="n">
-        <v>369.499740389278</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G43" t="n">
-        <v>202.303641104158</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647277</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368208</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>481.447947124485</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>333.5348535420919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>186.6449060441816</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>186.6449060441816</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.4751802037394</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942333</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>55.07328846503231</v>
       </c>
       <c r="O2" t="n">
-        <v>369.603020508343</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>117.3274242907401</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>26.19461818159724</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>84.69108553970736</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>374.8512253714677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,16 +8298,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>347.1830914177567</v>
       </c>
       <c r="M6" t="n">
-        <v>231.4498533910213</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>253.1450992870219</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>162.7491560325408</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>220.129715665465</v>
       </c>
       <c r="M9" t="n">
-        <v>130.6961128228675</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>253.1450992870218</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>38.13892827624271</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>130.4994612393479</v>
       </c>
       <c r="G16" t="n">
-        <v>73.85777223953461</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>48.39475227997582</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>32.15184655856254</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>9.46896602165549</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>206.7713260796062</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
     </row>
     <row r="32">
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
     </row>
     <row r="38">
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>32.89260457059999</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>84.25835418137865</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>32.89260457059963</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>129.6605885985418</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>729054.9565227051</v>
+        <v>729054.956522705</v>
       </c>
     </row>
     <row r="4">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>711742.7704138665</v>
+        <v>711742.7704138664</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>711742.7704138665</v>
+        <v>711742.7704138664</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>711742.7704138665</v>
+        <v>711742.7704138664</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287551</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287554</v>
       </c>
       <c r="L2" t="n">
         <v>706253.274728755</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753987</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898924</v>
+        <v>172764.3597898925</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695103</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6287.4805316951</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6287.480531695044</v>
+      </c>
+      <c r="H4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="F4" t="n">
-        <v>6287.480531695083</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="I4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695058</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695053</v>
+        <v>6287.480531695073</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695056</v>
+        <v>6287.480531695044</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695051</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-470402.3009563014</v>
+        <v>-470402.300956301</v>
       </c>
       <c r="C6" t="n">
-        <v>323099.3447545982</v>
+        <v>323099.344754598</v>
       </c>
       <c r="D6" t="n">
-        <v>495863.7045444906</v>
+        <v>495863.704544491</v>
       </c>
       <c r="E6" t="n">
-        <v>97954.39662740265</v>
+        <v>97919.658701967</v>
       </c>
       <c r="F6" t="n">
-        <v>598843.264373153</v>
+        <v>598808.5264477174</v>
       </c>
       <c r="G6" t="n">
-        <v>598843.2643731532</v>
+        <v>598808.5264477177</v>
       </c>
       <c r="H6" t="n">
-        <v>598843.2643731532</v>
+        <v>598808.5264477176</v>
       </c>
       <c r="I6" t="n">
-        <v>598843.2643731531</v>
+        <v>598808.5264477176</v>
       </c>
       <c r="J6" t="n">
-        <v>429429.2475471048</v>
+        <v>429394.5096216691</v>
       </c>
       <c r="K6" t="n">
-        <v>598843.2643731532</v>
+        <v>598808.5264477173</v>
       </c>
       <c r="L6" t="n">
-        <v>598843.2643731529</v>
+        <v>598808.5264477172</v>
       </c>
       <c r="M6" t="n">
-        <v>467958.8074689177</v>
+        <v>467924.0695434823</v>
       </c>
       <c r="N6" t="n">
-        <v>598843.2643731532</v>
+        <v>598808.5264477178</v>
       </c>
       <c r="O6" t="n">
-        <v>598843.2643731532</v>
+        <v>598808.5264477177</v>
       </c>
       <c r="P6" t="n">
-        <v>598843.2643731533</v>
+        <v>598808.5264477178</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
         <v>647.4981915352464</v>
@@ -26960,13 +26960,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522338</v>
+        <v>189.7254341522339</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>339.9664944694686</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>136.1555515810011</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>104.1266279667325</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
@@ -27555,7 +27555,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>86.17769216658601</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>42.06456143001395</v>
+        <v>254.4322774282638</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>120.5921672782687</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6.613449765408575</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>245.7419455522242</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>58.78964455726154</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>112.9060067040307</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>105.4310422139826</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.139538119038411e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28330,16 +28330,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31285,25 +31285,25 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
         <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
         <v>407.9506271086971</v>
@@ -31312,7 +31312,7 @@
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179232</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837063</v>
@@ -31364,22 +31364,22 @@
         <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274806</v>
@@ -31391,13 +31391,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
         <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31461,10 +31461,10 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
         <v>76.19324275662508</v>
@@ -31473,10 +31473,10 @@
         <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31525,37 +31525,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31619,19 +31619,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31677,25 +31677,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.6580975439414</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>164.9290651940696</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>362.5355639238086</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>312.3207226334981</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,10 +33029,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>687.0167715190038</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>339.9772972286971</v>
+        <v>167.4835451665588</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L42" t="n">
-        <v>590.4022545401851</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,10 +34451,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
         <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>647.4981915352465</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>363.6340018343105</v>
       </c>
       <c r="O2" t="n">
-        <v>647.4981915352465</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223266</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.6076882493815</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>110.2623247590316</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>641.4568127406473</v>
       </c>
       <c r="N3" t="n">
         <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
         <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,25 +34939,25 @@
         <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
         <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760962034</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171355</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M6" t="n">
-        <v>601.4558023731682</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>647.4981915352465</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025567</v>
+        <v>501.0609547350976</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
@@ -35036,7 +35036,7 @@
         <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225504</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978362</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35109,10 +35109,10 @@
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>520.4448157829546</v>
       </c>
       <c r="M9" t="n">
-        <v>500.7020618050144</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>647.4981915352464</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,10 +35337,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35349,7 +35349,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.97859357997743</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>379.5262112417391</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>22.33282074962517</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>222.5537898377871</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36610,10 +36610,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,10 +36677,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M27" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>544.4205270745593</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>197.8432633066788</v>
+        <v>25.34951124454049</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L42" t="n">
-        <v>451.8478747603109</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,10 +38099,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
